--- a/doc/requirements/HerediVar_requirements.xlsx
+++ b/doc/requirements/HerediVar_requirements.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\AH\Verwaltung\Drittmittel\Projekte\D.30.30008 HerediVar Marc Sturm\+Requirements\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E157D2-1FD7-4139-97CC-2B19B666044B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="90" windowWidth="26445" windowHeight="12885"/>
+    <workbookView xWindow="1920" yWindow="90" windowWidth="26445" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Use-cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Daten" sheetId="1" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>ClinVar</t>
   </si>
@@ -24,7 +30,16 @@
     <t>Daten</t>
   </si>
   <si>
-    <t>Wie häufig gefunden?</t>
+    <t>Segregationsdaten</t>
+  </si>
+  <si>
+    <t>Familiendaten</t>
+  </si>
+  <si>
+    <t>Tumorpathologie</t>
+  </si>
+  <si>
+    <t>Familiengeschichte</t>
   </si>
   <si>
     <t>FLOSSIES</t>
@@ -75,6 +90,9 @@
     <t>Ergebnis und Bewertung von Spleißanalysen</t>
   </si>
   <si>
+    <t>Ergebnis und Bewertung von Funktionellen Analysen</t>
+  </si>
+  <si>
     <t>Bemerkungen der VUS-Task-Force</t>
   </si>
   <si>
@@ -87,25 +105,13 @@
     <t xml:space="preserve">Bereits in Leipzig vorhandene Bemerkungen der TF </t>
   </si>
   <si>
-    <t>Aussicht: Könnte die Datenbank Konflikte bzgl. der Variantenbewertung in Leipzig erkennen und importieren oder wäre dies eine Funktion die von der Leipziger Datenbank ausgehen müsste?</t>
-  </si>
-  <si>
-    <t>??? LR,  Scoring system für Familien einfügen je nach häufigkeit von Tumoren und Größe der Familie?</t>
-  </si>
-  <si>
-    <t>Anzahl Träger BC, OC, BCOC, nicht erkrankte (age at onset of disease (index, others))</t>
-  </si>
-  <si>
     <t>https://p53.iarc.fr/TP53GeneVariations.aspx</t>
   </si>
   <si>
     <t>Erstmeldendes Zentrum, welches Zentrum hat welche Klassifikation wann submitted?</t>
   </si>
   <si>
-    <t>TumorTyp, Age of onset, Age of diagnosis, nicht erkrankte</t>
-  </si>
-  <si>
-    <t>Eher nicht, da nicht strukturiert erfasst (ein score)</t>
+    <t>ein LikelyhoodRatio für alle Daten die verfügbar sind</t>
   </si>
   <si>
     <t>Zentrum und Klasse</t>
@@ -123,15 +129,15 @@
     <t>Quelle</t>
   </si>
   <si>
-    <t>erst nur kleine Varianten, CNVs und SVs vielleicht später</t>
-  </si>
-  <si>
     <t>Variante im VCF-Format (hg38, left-aligned)</t>
   </si>
   <si>
     <t>Details</t>
   </si>
   <si>
+    <t>Seq-ID aus HerediCare</t>
+  </si>
+  <si>
     <t>HerediCare</t>
   </si>
   <si>
@@ -168,9 +174,6 @@
     <t>VEP/tool</t>
   </si>
   <si>
-    <t xml:space="preserve">Splicing: HBOND score / Hexplorer </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Prof. Schaal aus Düsseldorf kontaktieren</t>
   </si>
   <si>
@@ -210,15 +213,9 @@
     <t>hotspots</t>
   </si>
   <si>
-    <t>BRCA1/2: HCI Cancer Sesceptibility Genes Prior Probabilities of Pathogenicity</t>
-  </si>
-  <si>
     <t>LYNCH genes: MAPP / PP2</t>
   </si>
   <si>
-    <t>TP53: Basedel</t>
-  </si>
-  <si>
     <t>https://gnomad.broadinstitute.org/downloads</t>
   </si>
   <si>
@@ -240,6 +237,15 @@
     <t>Automatische Klassifizierung</t>
   </si>
   <si>
+    <t>Score + PDF</t>
+  </si>
+  <si>
+    <t>Allele frequency / depth</t>
+  </si>
+  <si>
+    <t>Sobald in HerediCare abgebildet</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -249,22 +255,10 @@
     <t>genomAD</t>
   </si>
   <si>
-    <t>??? LR (Her2-, PR-, ER- ?  Medullär/ invasiv ductal?Ki-67+?) Diese Informationen sind schon sehr patientenspezifisch evtl. Berechnung schon in Leipzig und für die Varianten wird nur der Score übermittelt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Export der für die Bewertung der jeweiligen Variante relevanten Informationen als Zusammenfassung </t>
-  </si>
-  <si>
-    <t>sonstige Funktionen und Fragen</t>
-  </si>
-  <si>
-    <t>Optional: Textblöcke  für Varianten/Gene für Laborberichte/Befundbriefe (könnte der weiteren konsortiumsweiten Vereinheitlichung von Laborberichten dienen)</t>
-  </si>
-  <si>
-    <t>Wo gehen funktionelle Daten (RNA, DNA-Repair, DNA-Replikation, ???) hin? HerediVar oder HerediCare</t>
-  </si>
-  <si>
-    <t>Export klassifizierter Varianten nach ClinVar &gt; PDF Klassifizierungskriterien</t>
+    <t>pro User eine Score und Bemerkung + finale Taskforce Berwertung (Score und Bemerkung)</t>
+  </si>
+  <si>
+    <t>Rückspielen von Daten nach HerediCare sonst nicht möglich; Vorsicht es könnten mehrere Seq-IDs für die selbe Variaten da sein =&gt; Prüfen!</t>
   </si>
   <si>
     <t>Import aus HerediCare</t>
@@ -273,136 +267,159 @@
     <t>Export an HerediCare</t>
   </si>
   <si>
-    <t>Import von Daten aus externen Quellen, z.B. likelyhood-Berechnungen von Familien die nicht in HerediCare sind</t>
-  </si>
-  <si>
-    <t>Rückspielen von Daten nach HerediCare sonst nicht möglich; Vorsicht es könnten mehrere Seq-IDs für die selbe Variaten da sein =&gt; Prüfen!; Seq-Ids stabil?</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Upload von Variaten via VCF &gt; Individualle Klassifikation</t>
+  </si>
+  <si>
+    <t>Manuelle Eingabe von Varianten anhand von Transkript, Position und Nukleotidveränderung nach HGVS &gt; Individualle Klassifikation</t>
+  </si>
+  <si>
+    <t>Prio</t>
+  </si>
+  <si>
+    <t>CNVs/SVs?</t>
+  </si>
+  <si>
+    <t>erst nur kleine Varianten, CNVs und SVs später</t>
+  </si>
+  <si>
+    <t>Import von VUS-Varianten aus HerediCare &gt; Individuelle Klassifikation mehrerer VUS-TF-Mitglieder &gt; Consensus-Klassifikation der TF &gt; Export der Klassifikation nach HerediCare</t>
+  </si>
+  <si>
+    <t>Export klassifizierter Varianten nach ClinVar (Wir brauchen ein PDF mit Klassifizierungskriterien)</t>
+  </si>
+  <si>
+    <t>Konflikte der Variantenbewertung (benign vs. Pathogenic) in Leipzig erkennen und entsprechende Varianten importieren</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Textblöcke  für Varianten/Gene für Laborberichte/Befundbriefe (könnte der weiteren konsortiumsweiten Vereinheitlichung von Laborberichten dienen) - Standardisierung via FHIR möglich? http://build.fhir.org/ig/HL7/genomics-reporting/sequencing.html</t>
+  </si>
+  <si>
+    <t>Export der für die Bewertung der jeweiligen Variante relevanten Informationen als Zusammenfassung (PDF)</t>
+  </si>
+  <si>
+    <t>Strukturiere Erfassung der Hauptkriterien die zur TF-Klassifikation führten</t>
+  </si>
+  <si>
+    <t>Automatisierte Klassifizierung von Varianten (Hannover) &gt; Erkennung von Konflikten mit bisheriger Klassifizierung + Priosisierung wahrscheinlicher Klasse 4/5 Varianten</t>
+  </si>
+  <si>
+    <t>ANTRAG DURCHGEHEN!</t>
+  </si>
+  <si>
+    <t>PFAM, Uniprot, Handkuriert von VUS-TF (Genname, HG38 Position(chr:start-end), Domänenname)</t>
+  </si>
+  <si>
+    <t>Splicing: HBOND score / Hexplorer</t>
+  </si>
+  <si>
+    <t>http://priors.hci.utah.edu/PRIORS/BRCA/indexBRCA1.php</t>
+  </si>
+  <si>
+    <t>BRCA2: HCI Cancer Sesceptibility Genes Prior Probabilities of Pathogenicity</t>
+  </si>
+  <si>
+    <t>BRCA1: HCI Cancer Sesceptibility Genes Prior Probabilities of Pathogenicity</t>
+  </si>
+  <si>
+    <t>http://priors.hci.utah.edu/PRIORS/BRCA/indexBRCA2.php</t>
+  </si>
+  <si>
+    <t>tool?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tp53.isb-cgc.org/ </t>
+  </si>
+  <si>
+    <t>http://mutantp53.broadinstitute.org/heatMap/login</t>
+  </si>
+  <si>
+    <t>The TP53 Database</t>
+  </si>
+  <si>
+    <t>PHenotypic ANnotation of TP53 Mutations</t>
+  </si>
+  <si>
+    <t>COSMIC</t>
+  </si>
+  <si>
+    <t>https://cancer.sanger.ac.uk/cosmic</t>
+  </si>
+  <si>
+    <t>https://www.cbioportal.org/</t>
+  </si>
+  <si>
+    <t>cBioPortal</t>
+  </si>
+  <si>
+    <t>OrphaNet</t>
+  </si>
+  <si>
+    <t>OMIM</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>alle VUS, regelmäßig importieren (prüfen ob Valide vor Import!!!)</t>
+  </si>
+  <si>
+    <t>In wievielen Familien gefunden? In wievielen Fällen gefunden?</t>
+  </si>
+  <si>
+    <t>Phänotypdaten</t>
+  </si>
+  <si>
+    <t>Ein Score der in HerediCare berechnet wird</t>
+  </si>
+  <si>
+    <t>Anzahl Träger BC, OC, BCOC, nicht erkrankte + age at onset/diagnosis of disease + Ethnie + Geschlecht (Personenspezifische Daten höchstens temporär, speziell für TP53 [age at onset+Tumortyp+Familie])</t>
+  </si>
+  <si>
+    <t>Varianten-Zahl in Zentren</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PFAM, Uniprot, </t>
+      <t xml:space="preserve">#Fälle pro Zentrum, optional: #Tumor-Fälle + #Nicht-Tumor-Fälle für bestimmte Gene (Core-Gene, MLH1, MSH2, MSH6, STK11, PTEN, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="14"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>Handkurierte Domänen!?</t>
-    </r>
-  </si>
-  <si>
-    <t>PubMed-ID, Wer hat's hinterlegt, Wann hinterlegt, Einordnung; Kommentare mit User/Datum</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Patientenspezifische Information: variant allele frequency, depth, genotype, </t>
+      <t>...</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="14"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>HerediCare-Patient-ID?</t>
+      <t>)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sobald in HerediCare abgebildet, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>rechtlich ok?</t>
-    </r>
-  </si>
-  <si>
-    <t>Ergebnis und Bewertung von Funktionellen Analysen (extern/intern)</t>
-  </si>
-  <si>
-    <t>Güte/Aussagekraft des Assays: good, moderate, bad (comment) - Ergebnis: benign, uncertain, pathogenic/LOF + PDF</t>
-  </si>
-  <si>
-    <t>pro User eine Score und Bemerkung + 1-n finale Taskforce Berwertungen (Score, Bemerkung, Stand in HerediVar) + ACMG?</t>
-  </si>
-  <si>
-    <t>alle VUS oder alle Varianten?</t>
-  </si>
-  <si>
-    <t>regelmäßig importieren</t>
-  </si>
-  <si>
-    <t>ein LikelyhoodRatio für alle Daten die verfügbar sind + #Stammbäume + LL-Ratio pro Stammbaum</t>
-  </si>
-  <si>
-    <t>Legal?</t>
-  </si>
-  <si>
-    <t>LR-Segregationsdaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; Familiendaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; Phänotypdaten </t>
-  </si>
-  <si>
-    <t>LR-Tumorpathologie</t>
-  </si>
-  <si>
-    <t>LR-Familiengeschichte</t>
-  </si>
-  <si>
-    <t>LR-Cooccurance</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Manuelle Eingabe von Varianten oder Upload von Varianten möglich, oder nur Import aus HerediCare? Eher nur über HerediCare, weil sonst die DBs auseinanderlaufen</t>
-  </si>
-  <si>
-    <t>Anzeige von Variaten an der selben Stelle, die den selben AA-Austausch machen und pathogen sind aus ClinVar/HerediCare &gt; import aus ClinVar?!</t>
-  </si>
-  <si>
-    <t>Externe Quelle: Seq-ID aus HerediCare, ClinVar-ID, rs-Nummer</t>
-  </si>
-  <si>
-    <t>Manuelles erstellen von privaten Varianten anhand von Transkript/HGVS.c &gt; wie flaggen als Privat?</t>
-  </si>
-  <si>
-    <t>Entwicklung als open-source auf GitHub: Organization-Account GC-HBOC, Add: CorinnaErnst</t>
-  </si>
-  <si>
-    <t>Link auf einzelne Variante im Webinterface via VCF-Notation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Batch-Export VCF mit Annotaitonen: Klassifikation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+ andere Infos?</t>
-    </r>
+    <t>TP53 noch prüfen ob relevant &gt; Gunnar</t>
+  </si>
+  <si>
+    <t>http://bioinfo.univ-rouen.fr/HExoSplice_submit/index.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,31 +428,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,9 +451,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,18 +474,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -498,41 +506,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,7 +598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +630,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,6 +682,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,18 +875,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.5703125" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" customWidth="1"/>
-    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="207.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="182.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" customWidth="1"/>
     <col min="4" max="4" width="50.42578125" customWidth="1"/>
     <col min="5" max="5" width="48.85546875" customWidth="1"/>
     <col min="6" max="6" width="54.5703125" customWidth="1"/>
@@ -835,51 +1007,51 @@
     <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -890,7 +1062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -898,7 +1070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -906,18 +1078,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>87</v>
+      <c r="B8" t="s">
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -925,21 +1097,21 @@
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
+      <c r="B10" t="s">
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -947,7 +1119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -955,7 +1127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -963,451 +1135,400 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="5" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="C39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
+      <c r="C54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="30">
-      <c r="A53" t="s">
+      <c r="B58" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A55" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="11" customFormat="1">
-      <c r="A61" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:3" s="11" customFormat="1">
-      <c r="A62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:3" s="11" customFormat="1">
-      <c r="A63" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="10"/>
-    </row>
-    <row r="64" spans="1:3" s="11" customFormat="1">
-      <c r="A64" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="10"/>
-    </row>
-    <row r="65" spans="1:2" s="11" customFormat="1">
-      <c r="A65" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="1:2" s="11" customFormat="1">
-      <c r="A66" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-    </row>
-    <row r="68" spans="1:2" s="9" customFormat="1">
-      <c r="A68" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="C20" r:id="rId2"/>
-    <hyperlink ref="C21" r:id="rId3"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{514F072A-0C80-4FE8-9EAF-8A60541AC6A7}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{ADCAE1A5-854F-4727-BC29-6F94079E7729}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{7668369E-A38D-4F13-B3B8-88387800ACF2}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{F1F9E258-CBE3-46A5-9B46-396633557A34}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{22ED4FAD-78D0-4C9A-816A-3EAE0A02381D}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{681B41E2-3972-4752-8139-0F35C10A111A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/requirements/HerediVar_requirements.xlsx
+++ b/doc/requirements/HerediVar_requirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\AH\Verwaltung\Drittmittel\Projekte\D.30.30008 HerediVar Marc Sturm\+Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marc\GIT\HerediVar\doc\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E157D2-1FD7-4139-97CC-2B19B666044B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA634E49-DA63-48F1-8680-7D04578FB851}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="90" windowWidth="26445" windowHeight="12885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="124">
   <si>
     <t>ClinVar</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>http://bioinfo.univ-rouen.fr/HExoSplice_submit/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -990,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A60" sqref="A47:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,6 +1463,9 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
